--- a/高考全国院校投档线-文件转换_数据清洗/江西/2023/一本.xlsx
+++ b/高考全国院校投档线-文件转换_数据清洗/江西/2023/一本.xlsx
@@ -2739,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="N360" sqref="N360"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="K501" sqref="K501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/高考全国院校投档线-文件转换_数据清洗/江西/2023/一本.xlsx
+++ b/高考全国院校投档线-文件转换_数据清洗/江西/2023/一本.xlsx
@@ -2427,6 +2427,11 @@
       <filters>
         <filter val="理工"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:N1056">
@@ -2739,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="K501" sqref="K501"/>
+    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
+      <selection activeCell="F854" sqref="F854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2930,7 +2935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="5" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A5" s="6">
         <v>487</v>
       </c>
@@ -2958,7 +2963,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="6" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A6" s="6">
         <v>747</v>
       </c>
@@ -3028,7 +3033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="8" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A8" s="6">
         <v>485</v>
       </c>
@@ -3056,7 +3061,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="9" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A9" s="6">
         <v>745</v>
       </c>
@@ -3084,7 +3089,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="10" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A10" s="6">
         <v>420</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="12" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A12" s="6">
         <v>987</v>
       </c>
@@ -3224,7 +3229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="14" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A14" s="6">
         <v>802</v>
       </c>
@@ -3378,7 +3383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="18" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A18" s="6">
         <v>511</v>
       </c>
@@ -3406,7 +3411,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="19" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A19" s="6">
         <v>898</v>
       </c>
@@ -3560,7 +3565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="23" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A23" s="6">
         <v>546</v>
       </c>
@@ -3588,7 +3593,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="24" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A24" s="6">
         <v>837</v>
       </c>
@@ -3742,7 +3747,7 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="29" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A29" s="6">
         <v>804</v>
       </c>
@@ -3854,7 +3859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="32" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A32" s="6">
         <v>902</v>
       </c>
@@ -3966,7 +3971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="35" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A35" s="6">
         <v>750</v>
       </c>
@@ -3994,7 +3999,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="36" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A36" s="6">
         <v>833</v>
       </c>
@@ -4190,7 +4195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="41" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A41" s="6">
         <v>404</v>
       </c>
@@ -4498,7 +4503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="49" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A49" s="6">
         <v>488</v>
       </c>
@@ -4526,7 +4531,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="50" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A50" s="6">
         <v>875</v>
       </c>
@@ -4750,7 +4755,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="56" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A56" s="6">
         <v>557</v>
       </c>
@@ -4820,7 +4825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="58" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A58" s="6">
         <v>951</v>
       </c>
@@ -4890,7 +4895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="60" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A60" s="6">
         <v>522</v>
       </c>
@@ -4918,7 +4923,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="61" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A61" s="6">
         <v>751</v>
       </c>
@@ -5098,7 +5103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="66" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A66" s="6">
         <v>816</v>
       </c>
@@ -5459,7 +5464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="75" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A75" s="6">
         <v>985</v>
       </c>
@@ -5609,7 +5614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="79" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A79" s="6">
         <v>929</v>
       </c>
@@ -5665,7 +5670,7 @@
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="81" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A81" s="6">
         <v>878</v>
       </c>
@@ -5847,7 +5852,7 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="86" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A86" s="6">
         <v>755</v>
       </c>
@@ -6153,7 +6158,7 @@
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="95" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A95" s="6">
         <v>950</v>
       </c>
@@ -6307,7 +6312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="99" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A99" s="6">
         <v>521</v>
       </c>
@@ -6669,7 +6674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="108" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A108" s="6">
         <v>867</v>
       </c>
@@ -7095,7 +7100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="119" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A119" s="6">
         <v>770</v>
       </c>
@@ -7123,7 +7128,7 @@
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
     </row>
-    <row r="120" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="120" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A120" s="6">
         <v>996</v>
       </c>
@@ -7193,7 +7198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="122" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A122" s="6">
         <v>803</v>
       </c>
@@ -7261,7 +7266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="124" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A124" s="6">
         <v>901</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="129" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A129" s="6">
         <v>852</v>
       </c>
@@ -7479,7 +7484,7 @@
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
     </row>
-    <row r="130" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="130" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A130" s="6">
         <v>945</v>
       </c>
@@ -7827,7 +7832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="139" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A139" s="6">
         <v>900</v>
       </c>
@@ -7855,7 +7860,7 @@
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
     </row>
-    <row r="140" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="140" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A140" s="6">
         <v>442</v>
       </c>
@@ -7891,7 +7896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="141" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A141" s="6">
         <v>418</v>
       </c>
@@ -8251,7 +8256,7 @@
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
     </row>
-    <row r="151" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="151" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A151" s="6">
         <v>819</v>
       </c>
@@ -8483,7 +8488,7 @@
       <c r="M157" s="6"/>
       <c r="N157" s="6"/>
     </row>
-    <row r="158" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="158" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A158" s="6">
         <v>444</v>
       </c>
@@ -8633,7 +8638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="162" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A162" s="6">
         <v>760</v>
       </c>
@@ -8847,7 +8852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="168" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A168" s="6">
         <v>820</v>
       </c>
@@ -8957,7 +8962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="171" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A171" s="6">
         <v>848</v>
       </c>
@@ -8985,7 +8990,7 @@
       <c r="M171" s="6"/>
       <c r="N171" s="6"/>
     </row>
-    <row r="172" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="172" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A172" s="6">
         <v>879</v>
       </c>
@@ -9083,7 +9088,7 @@
       <c r="M174" s="6"/>
       <c r="N174" s="6"/>
     </row>
-    <row r="175" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="175" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A175" s="6">
         <v>796</v>
       </c>
@@ -9271,7 +9276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="180" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A180" s="6">
         <v>544</v>
       </c>
@@ -9509,7 +9514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="186" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A186" s="6">
         <v>452</v>
       </c>
@@ -9537,7 +9542,7 @@
       <c r="M186" s="6"/>
       <c r="N186" s="6"/>
     </row>
-    <row r="187" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="187" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A187" s="6">
         <v>636</v>
       </c>
@@ -9701,7 +9706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="191" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A191" s="6">
         <v>627</v>
       </c>
@@ -9859,7 +9864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="195" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A195" s="6">
         <v>877</v>
       </c>
@@ -10289,7 +10294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="206" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A206" s="6">
         <v>569</v>
       </c>
@@ -10317,7 +10322,7 @@
       <c r="M206" s="6"/>
       <c r="N206" s="6"/>
     </row>
-    <row r="207" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="207" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A207" s="6">
         <v>482</v>
       </c>
@@ -10615,7 +10620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="215" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A215" s="6">
         <v>767</v>
       </c>
@@ -10965,7 +10970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="224" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A224" s="6">
         <v>454</v>
       </c>
@@ -10993,7 +10998,7 @@
       <c r="M224" s="6"/>
       <c r="N224" s="6"/>
     </row>
-    <row r="225" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="225" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A225" s="6">
         <v>464</v>
       </c>
@@ -11021,7 +11026,7 @@
       <c r="M225" s="6"/>
       <c r="N225" s="6"/>
     </row>
-    <row r="226" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="226" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A226" s="6">
         <v>968</v>
       </c>
@@ -11049,7 +11054,7 @@
       <c r="M226" s="6"/>
       <c r="N226" s="6"/>
     </row>
-    <row r="227" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="227" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A227" s="6">
         <v>798</v>
       </c>
@@ -11193,7 +11198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="231" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A231" s="6">
         <v>436</v>
       </c>
@@ -11261,7 +11266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="233" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A233" s="6">
         <v>532</v>
       </c>
@@ -11329,7 +11334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="235" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A235" s="6">
         <v>984</v>
       </c>
@@ -11357,7 +11362,7 @@
       <c r="M235" s="6"/>
       <c r="N235" s="6"/>
     </row>
-    <row r="236" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="236" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A236" s="6">
         <v>934</v>
       </c>
@@ -11651,7 +11656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="244" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A244" s="6">
         <v>857</v>
       </c>
@@ -11679,7 +11684,7 @@
       <c r="M244" s="6"/>
       <c r="N244" s="6"/>
     </row>
-    <row r="245" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="245" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A245" s="6">
         <v>872</v>
       </c>
@@ -11707,7 +11712,7 @@
       <c r="M245" s="6"/>
       <c r="N245" s="6"/>
     </row>
-    <row r="246" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="246" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A246" s="6">
         <v>551</v>
       </c>
@@ -11743,7 +11748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="247" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A247" s="6">
         <v>545</v>
       </c>
@@ -11779,7 +11784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="248" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A248" s="6">
         <v>858</v>
       </c>
@@ -12075,7 +12080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="256" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A256" s="6">
         <v>815</v>
       </c>
@@ -12103,7 +12108,7 @@
       <c r="M256" s="6"/>
       <c r="N256" s="6"/>
     </row>
-    <row r="257" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="257" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A257" s="6">
         <v>897</v>
       </c>
@@ -12457,7 +12462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="267" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A267" s="6">
         <v>777</v>
       </c>
@@ -12769,7 +12774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="276" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A276" s="6">
         <v>805</v>
       </c>
@@ -12797,7 +12802,7 @@
       <c r="M276" s="6"/>
       <c r="N276" s="6"/>
     </row>
-    <row r="277" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="277" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A277" s="6">
         <v>769</v>
       </c>
@@ -12825,7 +12830,7 @@
       <c r="M277" s="6"/>
       <c r="N277" s="6"/>
     </row>
-    <row r="278" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="278" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A278" s="6">
         <v>637</v>
       </c>
@@ -13231,7 +13236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="289" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A289" s="6">
         <v>860</v>
       </c>
@@ -13497,7 +13502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="296" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A296" s="6">
         <v>814</v>
       </c>
@@ -13789,7 +13794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="304" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A304" s="6">
         <v>520</v>
       </c>
@@ -14035,7 +14040,7 @@
       <c r="M310" s="6"/>
       <c r="N310" s="6"/>
     </row>
-    <row r="311" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="311" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A311" s="6">
         <v>498</v>
       </c>
@@ -14115,7 +14120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="313" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="313" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A313" s="6">
         <v>768</v>
       </c>
@@ -14305,7 +14310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="318" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="318" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A318" s="6">
         <v>584</v>
       </c>
@@ -14343,7 +14348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="319" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="319" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A319" s="6">
         <v>437</v>
       </c>
@@ -14413,7 +14418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="321" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A321" s="6">
         <v>943</v>
       </c>
@@ -14489,7 +14494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="323" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A323" s="6">
         <v>652</v>
       </c>
@@ -14525,7 +14530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="324" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A324" s="6">
         <v>515</v>
       </c>
@@ -14645,7 +14650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="328" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="328" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A328" s="6">
         <v>709</v>
       </c>
@@ -14723,7 +14728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="330" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A330" s="6">
         <v>869</v>
       </c>
@@ -14791,7 +14796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="332" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A332" s="6">
         <v>632</v>
       </c>
@@ -14827,7 +14832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="333" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A333" s="6">
         <v>752</v>
       </c>
@@ -14855,7 +14860,7 @@
       <c r="M333" s="6"/>
       <c r="N333" s="6"/>
     </row>
-    <row r="334" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="334" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A334" s="6">
         <v>629</v>
       </c>
@@ -15141,7 +15146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="342" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A342" s="6">
         <v>809</v>
       </c>
@@ -15169,7 +15174,7 @@
       <c r="M342" s="6"/>
       <c r="N342" s="6"/>
     </row>
-    <row r="343" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="343" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A343" s="6">
         <v>435</v>
       </c>
@@ -15197,7 +15202,7 @@
       <c r="M343" s="6"/>
       <c r="N343" s="6"/>
     </row>
-    <row r="344" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="344" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A344" s="6">
         <v>868</v>
       </c>
@@ -15345,7 +15350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="348" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A348" s="6">
         <v>615</v>
       </c>
@@ -15381,7 +15386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="349" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A349" s="6">
         <v>486</v>
       </c>
@@ -15417,7 +15422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="350" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="350" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A350" s="6">
         <v>1032</v>
       </c>
@@ -15777,7 +15782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="360" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A360" s="6">
         <v>1043</v>
       </c>
@@ -15805,7 +15810,7 @@
       <c r="M360" s="6"/>
       <c r="N360" s="6"/>
     </row>
-    <row r="361" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="361" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A361" s="6">
         <v>700</v>
       </c>
@@ -15881,7 +15886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="363" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A363" s="6">
         <v>957</v>
       </c>
@@ -15917,7 +15922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="364" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A364" s="6">
         <v>853</v>
       </c>
@@ -15945,7 +15950,7 @@
       <c r="M364" s="6"/>
       <c r="N364" s="6"/>
     </row>
-    <row r="365" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="365" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A365" s="6">
         <v>505</v>
       </c>
@@ -16039,7 +16044,7 @@
       <c r="M367" s="6"/>
       <c r="N367" s="6"/>
     </row>
-    <row r="368" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="368" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A368" s="6">
         <v>711</v>
       </c>
@@ -16115,7 +16120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="370" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="370" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A370" s="6">
         <v>506</v>
       </c>
@@ -16299,7 +16304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="375" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="375" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A375" s="6">
         <v>484</v>
       </c>
@@ -16335,7 +16340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="376" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A376" s="6">
         <v>763</v>
       </c>
@@ -16363,7 +16368,7 @@
       <c r="M376" s="6"/>
       <c r="N376" s="6"/>
     </row>
-    <row r="377" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="377" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A377" s="6">
         <v>793</v>
       </c>
@@ -16495,7 +16500,7 @@
       <c r="M380" s="6"/>
       <c r="N380" s="6"/>
     </row>
-    <row r="381" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="381" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A381" s="6">
         <v>533</v>
       </c>
@@ -16709,7 +16714,7 @@
       <c r="M386" s="6"/>
       <c r="N386" s="6"/>
     </row>
-    <row r="387" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="387" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A387" s="6">
         <v>799</v>
       </c>
@@ -16737,7 +16742,7 @@
       <c r="M387" s="6"/>
       <c r="N387" s="6"/>
     </row>
-    <row r="388" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="388" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A388" s="6">
         <v>580</v>
       </c>
@@ -16773,7 +16778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="389" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A389" s="6">
         <v>536</v>
       </c>
@@ -16851,7 +16856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="391" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A391" s="6">
         <v>459</v>
       </c>
@@ -16887,7 +16892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="392" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="392" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A392" s="6">
         <v>524</v>
       </c>
@@ -17301,7 +17306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="404" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="404" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A404" s="6">
         <v>698</v>
       </c>
@@ -17337,7 +17342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="405" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A405" s="6">
         <v>507</v>
       </c>
@@ -17373,7 +17378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="406" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="406" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A406" s="6">
         <v>881</v>
       </c>
@@ -17401,7 +17406,7 @@
       <c r="M406" s="6"/>
       <c r="N406" s="6"/>
     </row>
-    <row r="407" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="407" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A407" s="6">
         <v>703</v>
       </c>
@@ -17477,7 +17482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="409" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="409" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A409" s="6">
         <v>896</v>
       </c>
@@ -17641,7 +17646,7 @@
       <c r="M413" s="6"/>
       <c r="N413" s="6"/>
     </row>
-    <row r="414" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="414" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A414" s="6">
         <v>690</v>
       </c>
@@ -17677,7 +17682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="415" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A415" s="6">
         <v>697</v>
       </c>
@@ -17713,7 +17718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="416" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="416" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A416" s="6">
         <v>500</v>
       </c>
@@ -17749,7 +17754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="417" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="417" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A417" s="6">
         <v>876</v>
       </c>
@@ -17777,7 +17782,7 @@
       <c r="M417" s="6"/>
       <c r="N417" s="6"/>
     </row>
-    <row r="418" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="418" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A418" s="6">
         <v>581</v>
       </c>
@@ -17853,7 +17858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="420" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="420" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A420" s="6">
         <v>725</v>
       </c>
@@ -18151,7 +18156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="428" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="428" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A428" s="6">
         <v>585</v>
       </c>
@@ -18443,7 +18448,7 @@
       <c r="M435" s="6"/>
       <c r="N435" s="6"/>
     </row>
-    <row r="436" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="436" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A436" s="6">
         <v>778</v>
       </c>
@@ -18471,7 +18476,7 @@
       <c r="M436" s="6"/>
       <c r="N436" s="6"/>
     </row>
-    <row r="437" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="437" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A437" s="6">
         <v>941</v>
       </c>
@@ -18507,7 +18512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="438" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="438" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A438" s="6">
         <v>715</v>
       </c>
@@ -18545,7 +18550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="439" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="439" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A439" s="6">
         <v>576</v>
       </c>
@@ -18581,7 +18586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="440" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="440" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A440" s="6">
         <v>696</v>
       </c>
@@ -18617,7 +18622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="441" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="441" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A441" s="6">
         <v>724</v>
       </c>
@@ -18693,7 +18698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="443" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="443" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A443" s="6">
         <v>850</v>
       </c>
@@ -18721,7 +18726,7 @@
       <c r="M443" s="6"/>
       <c r="N443" s="6"/>
     </row>
-    <row r="444" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="444" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A444" s="6">
         <v>625</v>
       </c>
@@ -19011,7 +19016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="452" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="452" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A452" s="6">
         <v>617</v>
       </c>
@@ -19047,7 +19052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="453" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="453" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A453" s="6">
         <v>782</v>
       </c>
@@ -19075,7 +19080,7 @@
       <c r="M453" s="6"/>
       <c r="N453" s="6"/>
     </row>
-    <row r="454" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="454" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A454" s="6">
         <v>412</v>
       </c>
@@ -19103,7 +19108,7 @@
       <c r="M454" s="6"/>
       <c r="N454" s="6"/>
     </row>
-    <row r="455" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="455" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A455" s="6">
         <v>810</v>
       </c>
@@ -19171,7 +19176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="457" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="457" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A457" s="6">
         <v>578</v>
       </c>
@@ -19281,7 +19286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="460" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="460" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A460" s="6">
         <v>716</v>
       </c>
@@ -19319,7 +19324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="461" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="461" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A461" s="6">
         <v>992</v>
       </c>
@@ -19357,7 +19362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="462" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="462" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A462" s="6">
         <v>702</v>
       </c>
@@ -19435,7 +19440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="464" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="464" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A464" s="6">
         <v>641</v>
       </c>
@@ -19471,7 +19476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="465" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="465" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A465" s="6">
         <v>471</v>
       </c>
@@ -19801,7 +19806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="474" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="474" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A474" s="6">
         <v>807</v>
       </c>
@@ -19829,7 +19834,7 @@
       <c r="M474" s="6"/>
       <c r="N474" s="6"/>
     </row>
-    <row r="475" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="475" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A475" s="6">
         <v>708</v>
       </c>
@@ -20171,7 +20176,7 @@
       <c r="M484" s="6"/>
       <c r="N484" s="6"/>
     </row>
-    <row r="485" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="485" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A485" s="6">
         <v>718</v>
       </c>
@@ -20207,7 +20212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="486" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="486" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A486" s="6">
         <v>618</v>
       </c>
@@ -20245,7 +20250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="487" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="487" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A487" s="6">
         <v>806</v>
       </c>
@@ -20273,7 +20278,7 @@
       <c r="M487" s="6"/>
       <c r="N487" s="6"/>
     </row>
-    <row r="488" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="488" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A488" s="6">
         <v>621</v>
       </c>
@@ -20309,7 +20314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="489" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="489" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A489" s="6">
         <v>430</v>
       </c>
@@ -20345,7 +20350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="490" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="490" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A490" s="6">
         <v>679</v>
       </c>
@@ -20381,7 +20386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="491" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="491" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A491" s="6">
         <v>719</v>
       </c>
@@ -20419,7 +20424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="492" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="492" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A492" s="6">
         <v>628</v>
       </c>
@@ -20529,7 +20534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="495" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="495" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A495" s="6">
         <v>705</v>
       </c>
@@ -20565,7 +20570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="496" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="496" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A496" s="6">
         <v>727</v>
       </c>
@@ -20601,7 +20606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="497" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="497" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A497" s="6">
         <v>526</v>
       </c>
@@ -20639,7 +20644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="498" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="498" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A498" s="6">
         <v>680</v>
       </c>
@@ -20675,7 +20680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="499" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="499" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A499" s="6">
         <v>543</v>
       </c>
@@ -20711,7 +20716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="500" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="500" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A500" s="6">
         <v>863</v>
       </c>
@@ -20779,7 +20784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="502" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="502" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A502" s="6">
         <v>608</v>
       </c>
@@ -20815,7 +20820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="503" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="503" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A503" s="6">
         <v>662</v>
       </c>
@@ -20891,7 +20896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="505" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="505" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A505" s="6">
         <v>677</v>
       </c>
@@ -20967,7 +20972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="507" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="507" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A507" s="6">
         <v>825</v>
       </c>
@@ -21329,7 +21334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="517" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="517" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A517" s="6">
         <v>635</v>
       </c>
@@ -21367,7 +21372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="518" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="518" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A518" s="6">
         <v>728</v>
       </c>
@@ -21403,7 +21408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="519" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="519" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A519" s="6">
         <v>675</v>
       </c>
@@ -21439,7 +21444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="520" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="520" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A520" s="6">
         <v>645</v>
       </c>
@@ -21515,7 +21520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="522" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="522" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A522" s="6">
         <v>736</v>
       </c>
@@ -21551,7 +21556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="523" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="523" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A523" s="6">
         <v>542</v>
       </c>
@@ -21587,7 +21592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="524" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="524" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A524" s="6">
         <v>453</v>
       </c>
@@ -21623,7 +21628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="525" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="525" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A525" s="6">
         <v>871</v>
       </c>
@@ -21651,7 +21656,7 @@
       <c r="M525" s="6"/>
       <c r="N525" s="6"/>
     </row>
-    <row r="526" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="526" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A526" s="6">
         <v>733</v>
       </c>
@@ -21687,7 +21692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="527" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="527" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A527" s="6">
         <v>712</v>
       </c>
@@ -21907,7 +21912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="533" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="533" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A533" s="6">
         <v>726</v>
       </c>
@@ -21943,7 +21948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="534" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="534" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A534" s="6">
         <v>501</v>
       </c>
@@ -21979,7 +21984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="535" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="535" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A535" s="6">
         <v>539</v>
       </c>
@@ -22317,7 +22322,7 @@
       <c r="M544" s="6"/>
       <c r="N544" s="6"/>
     </row>
-    <row r="545" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="545" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A545" s="6">
         <v>655</v>
       </c>
@@ -22353,7 +22358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="546" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="546" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A546" s="6">
         <v>599</v>
       </c>
@@ -22429,7 +22434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="548" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="548" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A548" s="6">
         <v>928</v>
       </c>
@@ -22467,7 +22472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="549" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="549" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A549" s="6">
         <v>634</v>
       </c>
@@ -22703,7 +22708,7 @@
       <c r="M555" s="6"/>
       <c r="N555" s="6"/>
     </row>
-    <row r="556" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="556" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A556" s="6">
         <v>502</v>
       </c>
@@ -23071,7 +23076,7 @@
       <c r="M565" s="6"/>
       <c r="N565" s="6"/>
     </row>
-    <row r="566" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="566" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A566" s="6">
         <v>565</v>
       </c>
@@ -23107,7 +23112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="567" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="567" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A567" s="6">
         <v>624</v>
       </c>
@@ -23143,7 +23148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="568" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="568" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A568" s="6">
         <v>398</v>
       </c>
@@ -23179,7 +23184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="569" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="569" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A569" s="6">
         <v>926</v>
       </c>
@@ -23215,7 +23220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="570" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="570" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A570" s="6">
         <v>753</v>
       </c>
@@ -23243,7 +23248,7 @@
       <c r="M570" s="6"/>
       <c r="N570" s="6"/>
     </row>
-    <row r="571" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="571" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A571" s="6">
         <v>541</v>
       </c>
@@ -23281,7 +23286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="572" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="572" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A572" s="6">
         <v>657</v>
       </c>
@@ -23681,7 +23686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="583" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="583" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A583" s="6">
         <v>582</v>
       </c>
@@ -23717,7 +23722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="584" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="584" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A584" s="6">
         <v>1005</v>
       </c>
@@ -23753,7 +23758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="585" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="585" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A585" s="6">
         <v>999</v>
       </c>
@@ -23789,7 +23794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="586" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="586" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A586" s="6">
         <v>596</v>
       </c>
@@ -23971,7 +23976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="591" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="591" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A591" s="6">
         <v>630</v>
       </c>
@@ -24007,7 +24012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="592" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="592" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A592" s="6">
         <v>620</v>
       </c>
@@ -24043,7 +24048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="593" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="593" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A593" s="6">
         <v>631</v>
       </c>
@@ -24079,7 +24084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="594" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="594" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A594" s="6">
         <v>592</v>
       </c>
@@ -24479,7 +24484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="605" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="605" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A605" s="6">
         <v>699</v>
       </c>
@@ -24515,7 +24520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="606" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="606" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A606" s="6">
         <v>509</v>
       </c>
@@ -24551,7 +24556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="607" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="607" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A607" s="6">
         <v>684</v>
       </c>
@@ -24587,7 +24592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="608" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="608" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A608" s="6">
         <v>643</v>
       </c>
@@ -24623,7 +24628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="609" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="609" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A609" s="6">
         <v>456</v>
       </c>
@@ -24659,7 +24664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="610" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="610" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A610" s="6">
         <v>614</v>
       </c>
@@ -24695,7 +24700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="611" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="611" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A611" s="6">
         <v>586</v>
       </c>
@@ -24731,7 +24736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="612" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="612" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A612" s="6">
         <v>710</v>
       </c>
@@ -25147,7 +25152,7 @@
       <c r="M623" s="6"/>
       <c r="N623" s="6"/>
     </row>
-    <row r="624" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="624" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A624" s="6">
         <v>1042</v>
       </c>
@@ -25179,7 +25184,7 @@
       <c r="M624" s="6"/>
       <c r="N624" s="6"/>
     </row>
-    <row r="625" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="625" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A625" s="6">
         <v>658</v>
       </c>
@@ -25323,7 +25328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="629" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="629" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A629" s="6">
         <v>575</v>
       </c>
@@ -25351,7 +25356,7 @@
       <c r="M629" s="6"/>
       <c r="N629" s="6"/>
     </row>
-    <row r="630" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="630" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A630" s="6">
         <v>591</v>
       </c>
@@ -25599,7 +25604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="637" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="637" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A637" s="6">
         <v>583</v>
       </c>
@@ -25635,7 +25640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="638" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="638" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A638" s="6">
         <v>931</v>
       </c>
@@ -25671,7 +25676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="639" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="639" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A639" s="6">
         <v>682</v>
       </c>
@@ -25707,7 +25712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="640" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="640" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A640" s="6">
         <v>731</v>
       </c>
@@ -25743,7 +25748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="641" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="641" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A641" s="6">
         <v>590</v>
       </c>
@@ -25819,7 +25824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="643" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="643" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A643" s="6">
         <v>1055</v>
       </c>
@@ -26031,7 +26036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="649" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="649" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A649" s="6">
         <v>874</v>
       </c>
@@ -26063,7 +26068,7 @@
       <c r="M649" s="6"/>
       <c r="N649" s="6"/>
     </row>
-    <row r="650" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="650" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A650" s="6">
         <v>1031</v>
       </c>
@@ -26095,7 +26100,7 @@
       <c r="M650" s="6"/>
       <c r="N650" s="6"/>
     </row>
-    <row r="651" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="651" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A651" s="6">
         <v>673</v>
       </c>
@@ -26131,7 +26136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="652" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="652" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A652" s="6">
         <v>400</v>
       </c>
@@ -26471,7 +26476,7 @@
       <c r="M661" s="6"/>
       <c r="N661" s="6"/>
     </row>
-    <row r="662" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="662" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A662" s="6">
         <v>450</v>
       </c>
@@ -26507,7 +26512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="663" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="663" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A663" s="6">
         <v>1027</v>
       </c>
@@ -26543,7 +26548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="664" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="664" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A664" s="6">
         <v>467</v>
       </c>
@@ -26579,7 +26584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="665" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="665" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A665" s="6">
         <v>564</v>
       </c>
@@ -26615,7 +26620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="666" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="666" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A666" s="6">
         <v>619</v>
       </c>
@@ -26651,7 +26656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="667" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="667" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A667" s="6">
         <v>661</v>
       </c>
@@ -26687,7 +26692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="668" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="668" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A668" s="6">
         <v>903</v>
       </c>
@@ -26715,7 +26720,7 @@
       <c r="M668" s="6"/>
       <c r="N668" s="6"/>
     </row>
-    <row r="669" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="669" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A669" s="6">
         <v>611</v>
       </c>
@@ -26851,7 +26856,7 @@
       <c r="M672" s="6"/>
       <c r="N672" s="6"/>
     </row>
-    <row r="673" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="673" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A673" s="6">
         <v>714</v>
       </c>
@@ -26887,7 +26892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="674" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="674" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A674" s="6">
         <v>729</v>
       </c>
@@ -27239,7 +27244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="684" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="684" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A684" s="6">
         <v>693</v>
       </c>
@@ -27275,7 +27280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="685" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="685" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A685" s="6">
         <v>904</v>
       </c>
@@ -27303,7 +27308,7 @@
       <c r="M685" s="6"/>
       <c r="N685" s="6"/>
     </row>
-    <row r="686" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="686" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A686" s="6">
         <v>666</v>
       </c>
@@ -27339,7 +27344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="687" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="687" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A687" s="6">
         <v>683</v>
       </c>
@@ -27375,7 +27380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="688" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="688" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A688" s="6">
         <v>758</v>
       </c>
@@ -27403,7 +27408,7 @@
       <c r="M688" s="6"/>
       <c r="N688" s="6"/>
     </row>
-    <row r="689" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="689" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A689" s="6">
         <v>1033</v>
       </c>
@@ -27431,7 +27436,7 @@
       <c r="M689" s="6"/>
       <c r="N689" s="6"/>
     </row>
-    <row r="690" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="690" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A690" s="6">
         <v>922</v>
       </c>
@@ -27467,7 +27472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="691" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="691" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A691" s="6">
         <v>975</v>
       </c>
@@ -27739,7 +27744,7 @@
       <c r="M698" s="6"/>
       <c r="N698" s="6"/>
     </row>
-    <row r="699" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="699" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A699" s="6">
         <v>616</v>
       </c>
@@ -27775,7 +27780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="700" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="700" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A700" s="6">
         <v>717</v>
       </c>
@@ -27811,7 +27816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="701" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="701" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A701" s="6">
         <v>508</v>
       </c>
@@ -27847,7 +27852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="702" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="702" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A702" s="6">
         <v>839</v>
       </c>
@@ -27875,7 +27880,7 @@
       <c r="M702" s="6"/>
       <c r="N702" s="6"/>
     </row>
-    <row r="703" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="703" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A703" s="6">
         <v>589</v>
       </c>
@@ -28093,7 +28098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="709" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="709" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A709" s="6">
         <v>893</v>
       </c>
@@ -28121,7 +28126,7 @@
       <c r="M709" s="6"/>
       <c r="N709" s="6"/>
     </row>
-    <row r="710" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="710" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A710" s="6">
         <v>664</v>
       </c>
@@ -28157,7 +28162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="711" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="711" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A711" s="6">
         <v>692</v>
       </c>
@@ -28193,7 +28198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="712" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="712" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A712" s="6">
         <v>930</v>
       </c>
@@ -28229,7 +28234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="713" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="713" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A713" s="6">
         <v>441</v>
       </c>
@@ -28265,7 +28270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="714" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="714" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A714" s="6">
         <v>401</v>
       </c>
@@ -28301,7 +28306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="715" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="715" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A715" s="6">
         <v>723</v>
       </c>
@@ -28513,7 +28518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="721" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="721" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A721" s="6">
         <v>597</v>
       </c>
@@ -28549,7 +28554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="722" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="722" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A722" s="6">
         <v>983</v>
       </c>
@@ -28585,7 +28590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="723" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="723" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A723" s="6">
         <v>954</v>
       </c>
@@ -28621,7 +28626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="724" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="724" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A724" s="6">
         <v>510</v>
       </c>
@@ -28657,7 +28662,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="725" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="725" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A725" s="6">
         <v>818</v>
       </c>
@@ -28685,7 +28690,7 @@
       <c r="M725" s="6"/>
       <c r="N725" s="6"/>
     </row>
-    <row r="726" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="726" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A726" s="6">
         <v>713</v>
       </c>
@@ -28941,7 +28946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="733" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="733" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A733" s="6">
         <v>445</v>
       </c>
@@ -28977,7 +28982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="734" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="734" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A734" s="6">
         <v>503</v>
       </c>
@@ -29013,7 +29018,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="735" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="735" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A735" s="6">
         <v>1048</v>
       </c>
@@ -29041,7 +29046,7 @@
       <c r="M735" s="6"/>
       <c r="N735" s="6"/>
     </row>
-    <row r="736" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="736" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A736" s="6">
         <v>410</v>
       </c>
@@ -29077,7 +29082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="737" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="737" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A737" s="6">
         <v>882</v>
       </c>
@@ -29105,7 +29110,7 @@
       <c r="M737" s="6"/>
       <c r="N737" s="6"/>
     </row>
-    <row r="738" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="738" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A738" s="6">
         <v>547</v>
       </c>
@@ -29141,7 +29146,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="739" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="739" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A739" s="6">
         <v>757</v>
       </c>
@@ -29169,7 +29174,7 @@
       <c r="M739" s="6"/>
       <c r="N739" s="6"/>
     </row>
-    <row r="740" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="740" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A740" s="6">
         <v>722</v>
       </c>
@@ -29405,7 +29410,7 @@
       <c r="M746" s="6"/>
       <c r="N746" s="6"/>
     </row>
-    <row r="747" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="747" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A747" s="6">
         <v>812</v>
       </c>
@@ -29433,7 +29438,7 @@
       <c r="M747" s="6"/>
       <c r="N747" s="6"/>
     </row>
-    <row r="748" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="748" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A748" s="6">
         <v>913</v>
       </c>
@@ -29469,7 +29474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="749" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="749" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A749" s="6">
         <v>859</v>
       </c>
@@ -29497,7 +29502,7 @@
       <c r="M749" s="6"/>
       <c r="N749" s="6"/>
     </row>
-    <row r="750" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="750" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A750" s="6">
         <v>638</v>
       </c>
@@ -29741,7 +29746,7 @@
       <c r="M756" s="6"/>
       <c r="N756" s="6"/>
     </row>
-    <row r="757" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="757" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A757" s="6">
         <v>1022</v>
       </c>
@@ -29777,7 +29782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="758" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="758" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A758" s="6">
         <v>659</v>
       </c>
@@ -29813,7 +29818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="759" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="759" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A759" s="6">
         <v>647</v>
       </c>
@@ -29849,7 +29854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="760" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="760" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A760" s="6">
         <v>732</v>
       </c>
@@ -30061,7 +30066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="766" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="766" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A766" s="6">
         <v>691</v>
       </c>
@@ -30097,7 +30102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="767" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="767" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A767" s="6">
         <v>776</v>
       </c>
@@ -30125,7 +30130,7 @@
       <c r="M767" s="6"/>
       <c r="N767" s="6"/>
     </row>
-    <row r="768" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="768" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A768" s="6">
         <v>663</v>
       </c>
@@ -30161,7 +30166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="769" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="769" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A769" s="6">
         <v>681</v>
       </c>
@@ -30197,7 +30202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="770" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="770" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A770" s="6">
         <v>639</v>
       </c>
@@ -30233,7 +30238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="771" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="771" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A771" s="6">
         <v>734</v>
       </c>
@@ -30305,7 +30310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="773" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="773" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A773" s="6">
         <v>390</v>
       </c>
@@ -30341,7 +30346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="774" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="774" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A774" s="6">
         <v>640</v>
       </c>
@@ -30377,7 +30382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="775" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="775" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A775" s="6">
         <v>689</v>
       </c>
@@ -30413,7 +30418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="776" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="776" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A776" s="6">
         <v>895</v>
       </c>
@@ -30441,7 +30446,7 @@
       <c r="M776" s="6"/>
       <c r="N776" s="6"/>
     </row>
-    <row r="777" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="777" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A777" s="6">
         <v>889</v>
       </c>
@@ -30541,7 +30546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="780" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="780" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A780" s="6">
         <v>894</v>
       </c>
@@ -30569,7 +30574,7 @@
       <c r="M780" s="6"/>
       <c r="N780" s="6"/>
     </row>
-    <row r="781" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="781" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A781" s="6">
         <v>523</v>
       </c>
@@ -30605,7 +30610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="782" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="782" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A782" s="6">
         <v>932</v>
       </c>
@@ -30641,7 +30646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="783" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="783" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A783" s="6">
         <v>623</v>
       </c>
@@ -30677,7 +30682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="784" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="784" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A784" s="6">
         <v>942</v>
       </c>
@@ -30713,7 +30718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="785" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="785" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A785" s="6">
         <v>695</v>
       </c>
@@ -30877,7 +30882,7 @@
       <c r="M789" s="6"/>
       <c r="N789" s="6"/>
     </row>
-    <row r="790" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="790" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A790" s="6">
         <v>601</v>
       </c>
@@ -30913,7 +30918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="791" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="791" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A791" s="6">
         <v>672</v>
       </c>
@@ -30949,7 +30954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="792" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="792" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A792" s="6">
         <v>642</v>
       </c>
@@ -30977,7 +30982,7 @@
       <c r="M792" s="6"/>
       <c r="N792" s="6"/>
     </row>
-    <row r="793" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="793" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A793" s="6">
         <v>413</v>
       </c>
@@ -31013,7 +31018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="794" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="794" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A794" s="6">
         <v>1039</v>
       </c>
@@ -31041,7 +31046,7 @@
       <c r="M794" s="6"/>
       <c r="N794" s="6"/>
     </row>
-    <row r="795" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="795" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A795" s="6">
         <v>649</v>
       </c>
@@ -31077,7 +31082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="796" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="796" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A796" s="6">
         <v>588</v>
       </c>
@@ -31113,7 +31118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="797" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="797" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A797" s="6">
         <v>947</v>
       </c>
@@ -31361,7 +31366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="804" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="804" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A804" s="6">
         <v>997</v>
       </c>
@@ -31397,7 +31402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="805" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="805" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A805" s="6">
         <v>738</v>
       </c>
@@ -31433,7 +31438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="806" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="806" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A806" s="6">
         <v>730</v>
       </c>
@@ -31469,7 +31474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="807" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="807" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A807" s="6">
         <v>613</v>
       </c>
@@ -31505,7 +31510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="808" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="808" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A808" s="6">
         <v>1012</v>
       </c>
@@ -31541,7 +31546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="809" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="809" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A809" s="6">
         <v>1029</v>
       </c>
@@ -31733,7 +31738,7 @@
       <c r="M814" s="6"/>
       <c r="N814" s="6"/>
     </row>
-    <row r="815" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="815" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A815" s="6">
         <v>408</v>
       </c>
@@ -31769,7 +31774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="816" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="816" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A816" s="6">
         <v>735</v>
       </c>
@@ -31805,7 +31810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="817" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="817" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A817" s="6">
         <v>626</v>
       </c>
@@ -31881,7 +31886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="819" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="819" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A819" s="6">
         <v>1037</v>
       </c>
@@ -31909,7 +31914,7 @@
       <c r="M819" s="6"/>
       <c r="N819" s="6"/>
     </row>
-    <row r="820" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="820" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A820" s="6">
         <v>969</v>
       </c>
@@ -32053,7 +32058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="824" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="824" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A824" s="6">
         <v>622</v>
       </c>
@@ -32089,7 +32094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="825" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="825" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A825" s="6">
         <v>606</v>
       </c>
@@ -32125,7 +32130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="826" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="826" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A826" s="6">
         <v>740</v>
       </c>
@@ -32161,7 +32166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="827" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="827" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A827" s="6">
         <v>1009</v>
       </c>
@@ -32197,7 +32202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="828" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="828" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A828" s="6">
         <v>887</v>
       </c>
@@ -32225,7 +32230,7 @@
       <c r="M828" s="6"/>
       <c r="N828" s="6"/>
     </row>
-    <row r="829" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="829" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A829" s="6">
         <v>399</v>
       </c>
@@ -32301,7 +32306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="831" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="831" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A831" s="6">
         <v>914</v>
       </c>
@@ -32337,7 +32342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="832" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="832" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A832" s="6">
         <v>678</v>
       </c>
@@ -32373,7 +32378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="833" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="833" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A833" s="6">
         <v>864</v>
       </c>
@@ -32401,7 +32406,7 @@
       <c r="M833" s="6"/>
       <c r="N833" s="6"/>
     </row>
-    <row r="834" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="834" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A834" s="6">
         <v>598</v>
       </c>
@@ -32437,7 +32442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="835" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="835" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A835" s="6">
         <v>974</v>
       </c>
@@ -32565,7 +32570,7 @@
       <c r="M838" s="6"/>
       <c r="N838" s="6"/>
     </row>
-    <row r="839" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="839" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A839" s="6">
         <v>1046</v>
       </c>
@@ -32597,7 +32602,7 @@
       <c r="M839" s="6"/>
       <c r="N839" s="6"/>
     </row>
-    <row r="840" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="840" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A840" s="6">
         <v>579</v>
       </c>
@@ -32633,7 +32638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="841" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="841" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A841" s="6">
         <v>687</v>
       </c>
@@ -32669,7 +32674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="842" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="842" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A842" s="6">
         <v>451</v>
       </c>
@@ -32705,7 +32710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="843" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="843" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A843" s="6">
         <v>1044</v>
       </c>
@@ -32733,7 +32738,7 @@
       <c r="M843" s="6"/>
       <c r="N843" s="6"/>
     </row>
-    <row r="844" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="844" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A844" s="6">
         <v>603</v>
       </c>
@@ -32769,7 +32774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="845" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="845" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A845" s="6">
         <v>1001</v>
       </c>
@@ -32945,7 +32950,7 @@
       <c r="M849" s="6"/>
       <c r="N849" s="6"/>
     </row>
-    <row r="850" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="850" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A850" s="6">
         <v>595</v>
       </c>
@@ -32981,7 +32986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="851" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="851" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A851" s="6">
         <v>604</v>
       </c>
@@ -33017,7 +33022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="852" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="852" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A852" s="6">
         <v>923</v>
       </c>
@@ -33053,7 +33058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="853" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="853" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A853" s="6">
         <v>701</v>
       </c>
@@ -33129,7 +33134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="855" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="855" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A855" s="6">
         <v>674</v>
       </c>
@@ -33165,7 +33170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="856" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="856" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A856" s="6">
         <v>746</v>
       </c>
@@ -33265,7 +33270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="859" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="859" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A859" s="6">
         <v>823</v>
       </c>
@@ -33293,7 +33298,7 @@
       <c r="M859" s="6"/>
       <c r="N859" s="6"/>
     </row>
-    <row r="860" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="860" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A860" s="6">
         <v>660</v>
       </c>
@@ -33329,7 +33334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="861" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="861" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A861" s="6">
         <v>594</v>
       </c>
@@ -33365,7 +33370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="862" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="862" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A862" s="6">
         <v>688</v>
       </c>
@@ -33401,7 +33406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="863" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="863" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A863" s="6">
         <v>633</v>
       </c>
@@ -33437,7 +33442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="864" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="864" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A864" s="6">
         <v>671</v>
       </c>
@@ -33473,7 +33478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="865" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="865" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A865" s="6">
         <v>650</v>
       </c>
@@ -33537,7 +33542,7 @@
       <c r="M866" s="6"/>
       <c r="N866" s="6"/>
     </row>
-    <row r="867" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="867" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A867" s="6">
         <v>577</v>
       </c>
@@ -33573,7 +33578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="868" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="868" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A868" s="6">
         <v>1019</v>
       </c>
@@ -33609,7 +33614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="869" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="869" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A869" s="6">
         <v>587</v>
       </c>
@@ -33645,7 +33650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="870" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="870" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A870" s="6">
         <v>644</v>
       </c>
@@ -33681,7 +33686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="871" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="871" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A871" s="6">
         <v>744</v>
       </c>
@@ -33717,7 +33722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="872" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="872" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A872" s="6">
         <v>676</v>
       </c>
@@ -33789,7 +33794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="874" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="874" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A874" s="6">
         <v>694</v>
       </c>
@@ -33825,7 +33830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="875" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="875" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A875" s="6">
         <v>704</v>
       </c>
@@ -33861,7 +33866,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="876" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="876" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A876" s="6">
         <v>685</v>
       </c>
@@ -33897,7 +33902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="877" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="877" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A877" s="6">
         <v>961</v>
       </c>
@@ -33933,7 +33938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="878" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="878" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A878" s="6">
         <v>721</v>
       </c>
@@ -33969,7 +33974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="879" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="879" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A879" s="6">
         <v>665</v>
       </c>
@@ -34005,7 +34010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="880" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="880" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A880" s="6">
         <v>707</v>
       </c>
@@ -34077,7 +34082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="882" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="882" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A882" s="6">
         <v>600</v>
       </c>
@@ -34113,7 +34118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="883" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="883" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A883" s="6">
         <v>938</v>
       </c>
@@ -34149,7 +34154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="884" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="884" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A884" s="6">
         <v>940</v>
       </c>
@@ -34381,7 +34386,7 @@
       <c r="M891" s="6"/>
       <c r="N891" s="6"/>
     </row>
-    <row r="892" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="892" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A892" s="6">
         <v>409</v>
       </c>
@@ -34417,7 +34422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="893" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="893" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A893" s="6">
         <v>669</v>
       </c>
@@ -34453,7 +34458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="894" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="894" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A894" s="6">
         <v>991</v>
       </c>
@@ -34489,7 +34494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="895" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="895" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A895" s="6">
         <v>1002</v>
       </c>
@@ -34525,7 +34530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="896" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="896" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A896" s="6">
         <v>737</v>
       </c>
@@ -34561,7 +34566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="897" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="897" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A897" s="6">
         <v>686</v>
       </c>
@@ -34597,7 +34602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="898" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="898" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A898" s="6">
         <v>1003</v>
       </c>
@@ -34633,7 +34638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="899" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="899" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A899" s="6">
         <v>602</v>
       </c>
@@ -34669,7 +34674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="900" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="900" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A900" s="6">
         <v>654</v>
       </c>
@@ -34705,7 +34710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="901" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="901" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A901" s="6">
         <v>407</v>
       </c>
@@ -34741,7 +34746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="902" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="902" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A902" s="6">
         <v>1010</v>
       </c>
@@ -34777,7 +34782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="903" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="903" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A903" s="6">
         <v>668</v>
       </c>
@@ -34813,7 +34818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="904" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="904" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A904" s="6">
         <v>795</v>
       </c>
@@ -34841,7 +34846,7 @@
       <c r="M904" s="6"/>
       <c r="N904" s="6"/>
     </row>
-    <row r="905" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="905" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A905" s="6">
         <v>1045</v>
       </c>
@@ -34869,7 +34874,7 @@
       <c r="M905" s="6"/>
       <c r="N905" s="6"/>
     </row>
-    <row r="906" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="906" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A906" s="6">
         <v>648</v>
       </c>
@@ -34905,7 +34910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="907" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="907" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A907" s="6">
         <v>391</v>
       </c>
@@ -34941,7 +34946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="908" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="908" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A908" s="6">
         <v>917</v>
       </c>
@@ -34977,7 +34982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="909" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="909" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A909" s="6">
         <v>656</v>
       </c>
@@ -35013,7 +35018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="910" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="910" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A910" s="6">
         <v>1017</v>
       </c>
@@ -35049,7 +35054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="911" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="911" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A911" s="6">
         <v>392</v>
       </c>
@@ -35085,7 +35090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="912" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="912" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A912" s="6">
         <v>781</v>
       </c>
@@ -35113,7 +35118,7 @@
       <c r="M912" s="6"/>
       <c r="N912" s="6"/>
     </row>
-    <row r="913" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="913" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A913" s="6">
         <v>952</v>
       </c>
@@ -35149,7 +35154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="914" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="914" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A914" s="6">
         <v>395</v>
       </c>
@@ -35185,7 +35190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="915" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="915" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A915" s="6">
         <v>1053</v>
       </c>
@@ -35213,7 +35218,7 @@
       <c r="M915" s="6"/>
       <c r="N915" s="6"/>
     </row>
-    <row r="916" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="916" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A916" s="6">
         <v>1015</v>
       </c>
@@ -35241,7 +35246,7 @@
       <c r="M916" s="6"/>
       <c r="N916" s="6"/>
     </row>
-    <row r="917" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="917" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A917" s="6">
         <v>973</v>
       </c>
@@ -35277,7 +35282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="918" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="918" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A918" s="6">
         <v>998</v>
       </c>
@@ -35313,7 +35318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="919" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="919" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A919" s="6">
         <v>1047</v>
       </c>
@@ -35341,7 +35346,7 @@
       <c r="M919" s="6"/>
       <c r="N919" s="6"/>
     </row>
-    <row r="920" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="920" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A920" s="6">
         <v>607</v>
       </c>
@@ -35377,7 +35382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="921" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="921" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A921" s="6">
         <v>1051</v>
       </c>
@@ -35405,7 +35410,7 @@
       <c r="M921" s="6"/>
       <c r="N921" s="6"/>
     </row>
-    <row r="922" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="922" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A922" s="6">
         <v>472</v>
       </c>
@@ -35441,7 +35446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="923" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="923" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A923" s="6">
         <v>706</v>
       </c>
@@ -35477,7 +35482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="924" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="924" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A924" s="6">
         <v>1038</v>
       </c>
@@ -35505,7 +35510,7 @@
       <c r="M924" s="6"/>
       <c r="N924" s="6"/>
     </row>
-    <row r="925" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="925" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A925" s="6">
         <v>1023</v>
       </c>
@@ -35541,7 +35546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="926" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="926" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A926" s="6">
         <v>962</v>
       </c>
@@ -35577,7 +35582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="927" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="927" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A927" s="6">
         <v>610</v>
       </c>
@@ -35613,7 +35618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="928" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="928" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A928" s="6">
         <v>739</v>
       </c>
@@ -35649,7 +35654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="929" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="929" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A929" s="6">
         <v>593</v>
       </c>
@@ -35685,7 +35690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="930" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="930" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A930" s="6">
         <v>1025</v>
       </c>
@@ -35721,7 +35726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="931" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="931" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A931" s="6">
         <v>1020</v>
       </c>
@@ -35757,7 +35762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="932" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="932" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A932" s="6">
         <v>861</v>
       </c>
@@ -35785,7 +35790,7 @@
       <c r="M932" s="6"/>
       <c r="N932" s="6"/>
     </row>
-    <row r="933" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="933" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A933" s="6">
         <v>1024</v>
       </c>
@@ -35821,7 +35826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="934" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="934" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A934" s="6">
         <v>1050</v>
       </c>
@@ -35849,7 +35854,7 @@
       <c r="M934" s="6"/>
       <c r="N934" s="6"/>
     </row>
-    <row r="935" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="935" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A935" s="6">
         <v>1035</v>
       </c>
@@ -35877,7 +35882,7 @@
       <c r="M935" s="6"/>
       <c r="N935" s="6"/>
     </row>
-    <row r="936" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="936" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A936" s="6">
         <v>1054</v>
       </c>
@@ -35905,7 +35910,7 @@
       <c r="M936" s="6"/>
       <c r="N936" s="6"/>
     </row>
-    <row r="937" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="937" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A937" s="6">
         <v>743</v>
       </c>
@@ -35941,7 +35946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="938" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="938" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A938" s="6">
         <v>1016</v>
       </c>
@@ -35977,7 +35982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="939" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="939" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A939" s="6">
         <v>646</v>
       </c>
@@ -36013,7 +36018,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="940" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="940" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A940" s="6">
         <v>967</v>
       </c>
@@ -36049,7 +36054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="941" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="941" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A941" s="6">
         <v>462</v>
       </c>
@@ -36085,7 +36090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="942" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="942" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A942" s="6">
         <v>1036</v>
       </c>
@@ -36113,7 +36118,7 @@
       <c r="M942" s="6"/>
       <c r="N942" s="6"/>
     </row>
-    <row r="943" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="943" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A943" s="6">
         <v>742</v>
       </c>
@@ -36149,7 +36154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="944" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="944" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A944" s="6">
         <v>1041</v>
       </c>
@@ -36177,7 +36182,7 @@
       <c r="M944" s="6"/>
       <c r="N944" s="6"/>
     </row>
-    <row r="945" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="945" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A945" s="6">
         <v>720</v>
       </c>
@@ -36213,7 +36218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="946" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="946" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A946" s="6">
         <v>458</v>
       </c>
@@ -36249,7 +36254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="947" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="947" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A947" s="6">
         <v>415</v>
       </c>
@@ -36285,7 +36290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="948" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="948" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A948" s="6">
         <v>842</v>
       </c>
@@ -36313,7 +36318,7 @@
       <c r="M948" s="6"/>
       <c r="N948" s="6"/>
     </row>
-    <row r="949" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="949" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A949" s="6">
         <v>840</v>
       </c>
@@ -36341,7 +36346,7 @@
       <c r="M949" s="6"/>
       <c r="N949" s="6"/>
     </row>
-    <row r="950" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="950" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A950" s="6">
         <v>988</v>
       </c>
@@ -36377,7 +36382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="951" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="951" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A951" s="6">
         <v>1021</v>
       </c>
@@ -36413,7 +36418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="952" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="952" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A952" s="6">
         <v>1008</v>
       </c>
@@ -36449,7 +36454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="953" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="953" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A953" s="6">
         <v>905</v>
       </c>
@@ -36477,7 +36482,7 @@
       <c r="M953" s="6"/>
       <c r="N953" s="6"/>
     </row>
-    <row r="954" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="954" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A954" s="6">
         <v>1011</v>
       </c>
@@ -36513,7 +36518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="955" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="955" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A955" s="6">
         <v>402</v>
       </c>
@@ -36549,7 +36554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="956" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="956" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A956" s="6">
         <v>846</v>
       </c>
@@ -36577,7 +36582,7 @@
       <c r="M956" s="6"/>
       <c r="N956" s="6"/>
     </row>
-    <row r="957" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="957" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A957" s="6">
         <v>836</v>
       </c>
@@ -36605,7 +36610,7 @@
       <c r="M957" s="6"/>
       <c r="N957" s="6"/>
     </row>
-    <row r="958" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="958" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A958" s="6">
         <v>1052</v>
       </c>
@@ -36633,7 +36638,7 @@
       <c r="M958" s="6"/>
       <c r="N958" s="6"/>
     </row>
-    <row r="959" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="959" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A959" s="6">
         <v>651</v>
       </c>
@@ -36669,7 +36674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="960" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="960" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A960" s="6">
         <v>1034</v>
       </c>
@@ -36697,7 +36702,7 @@
       <c r="M960" s="6"/>
       <c r="N960" s="6"/>
     </row>
-    <row r="961" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="961" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A961" s="6">
         <v>416</v>
       </c>
@@ -36733,7 +36738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="962" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="962" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A962" s="6">
         <v>460</v>
       </c>
@@ -36769,7 +36774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="963" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="963" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A963" s="6">
         <v>474</v>
       </c>
@@ -36805,7 +36810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="964" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="964" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A964" s="6">
         <v>605</v>
       </c>
@@ -36841,7 +36846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="965" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="965" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A965" s="6">
         <v>609</v>
       </c>
@@ -36877,7 +36882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="966" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="966" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A966" s="6">
         <v>612</v>
       </c>
@@ -36913,7 +36918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="967" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="967" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A967" s="6">
         <v>653</v>
       </c>
@@ -36949,7 +36954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="968" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="968" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A968" s="6">
         <v>667</v>
       </c>
@@ -36985,7 +36990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="969" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="969" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A969" s="6">
         <v>670</v>
       </c>
@@ -37021,7 +37026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="970" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="970" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A970" s="6">
         <v>741</v>
       </c>
@@ -37057,7 +37062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="971" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="971" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A971" s="6">
         <v>748</v>
       </c>
@@ -37085,7 +37090,7 @@
       <c r="M971" s="6"/>
       <c r="N971" s="6"/>
     </row>
-    <row r="972" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="972" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A972" s="6">
         <v>749</v>
       </c>
@@ -37113,7 +37118,7 @@
       <c r="M972" s="6"/>
       <c r="N972" s="6"/>
     </row>
-    <row r="973" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="973" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A973" s="6">
         <v>754</v>
       </c>
@@ -37141,7 +37146,7 @@
       <c r="M973" s="6"/>
       <c r="N973" s="6"/>
     </row>
-    <row r="974" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="974" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A974" s="6">
         <v>756</v>
       </c>
@@ -37169,7 +37174,7 @@
       <c r="M974" s="6"/>
       <c r="N974" s="6"/>
     </row>
-    <row r="975" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="975" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A975" s="6">
         <v>759</v>
       </c>
@@ -37197,7 +37202,7 @@
       <c r="M975" s="6"/>
       <c r="N975" s="6"/>
     </row>
-    <row r="976" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="976" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A976" s="6">
         <v>761</v>
       </c>
@@ -37225,7 +37230,7 @@
       <c r="M976" s="6"/>
       <c r="N976" s="6"/>
     </row>
-    <row r="977" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="977" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A977" s="6">
         <v>762</v>
       </c>
@@ -37253,7 +37258,7 @@
       <c r="M977" s="6"/>
       <c r="N977" s="6"/>
     </row>
-    <row r="978" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="978" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A978" s="6">
         <v>764</v>
       </c>
@@ -37281,7 +37286,7 @@
       <c r="M978" s="6"/>
       <c r="N978" s="6"/>
     </row>
-    <row r="979" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="979" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A979" s="6">
         <v>765</v>
       </c>
@@ -37309,7 +37314,7 @@
       <c r="M979" s="6"/>
       <c r="N979" s="6"/>
     </row>
-    <row r="980" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="980" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A980" s="6">
         <v>766</v>
       </c>
@@ -37337,7 +37342,7 @@
       <c r="M980" s="6"/>
       <c r="N980" s="6"/>
     </row>
-    <row r="981" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="981" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A981" s="6">
         <v>771</v>
       </c>
@@ -37365,7 +37370,7 @@
       <c r="M981" s="6"/>
       <c r="N981" s="6"/>
     </row>
-    <row r="982" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="982" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A982" s="6">
         <v>772</v>
       </c>
@@ -37393,7 +37398,7 @@
       <c r="M982" s="6"/>
       <c r="N982" s="6"/>
     </row>
-    <row r="983" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="983" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A983" s="6">
         <v>773</v>
       </c>
@@ -37421,7 +37426,7 @@
       <c r="M983" s="6"/>
       <c r="N983" s="6"/>
     </row>
-    <row r="984" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="984" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A984" s="6">
         <v>774</v>
       </c>
@@ -37449,7 +37454,7 @@
       <c r="M984" s="6"/>
       <c r="N984" s="6"/>
     </row>
-    <row r="985" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="985" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A985" s="6">
         <v>775</v>
       </c>
@@ -37477,7 +37482,7 @@
       <c r="M985" s="6"/>
       <c r="N985" s="6"/>
     </row>
-    <row r="986" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="986" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A986" s="6">
         <v>779</v>
       </c>
@@ -37505,7 +37510,7 @@
       <c r="M986" s="6"/>
       <c r="N986" s="6"/>
     </row>
-    <row r="987" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="987" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A987" s="6">
         <v>780</v>
       </c>
@@ -37533,7 +37538,7 @@
       <c r="M987" s="6"/>
       <c r="N987" s="6"/>
     </row>
-    <row r="988" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="988" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A988" s="6">
         <v>783</v>
       </c>
@@ -37561,7 +37566,7 @@
       <c r="M988" s="6"/>
       <c r="N988" s="6"/>
     </row>
-    <row r="989" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="989" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A989" s="6">
         <v>784</v>
       </c>
@@ -37589,7 +37594,7 @@
       <c r="M989" s="6"/>
       <c r="N989" s="6"/>
     </row>
-    <row r="990" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="990" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A990" s="6">
         <v>785</v>
       </c>
@@ -37617,7 +37622,7 @@
       <c r="M990" s="6"/>
       <c r="N990" s="6"/>
     </row>
-    <row r="991" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="991" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A991" s="6">
         <v>786</v>
       </c>
@@ -37645,7 +37650,7 @@
       <c r="M991" s="6"/>
       <c r="N991" s="6"/>
     </row>
-    <row r="992" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="992" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A992" s="6">
         <v>787</v>
       </c>
@@ -37673,7 +37678,7 @@
       <c r="M992" s="6"/>
       <c r="N992" s="6"/>
     </row>
-    <row r="993" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="993" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A993" s="6">
         <v>788</v>
       </c>
@@ -37701,7 +37706,7 @@
       <c r="M993" s="6"/>
       <c r="N993" s="6"/>
     </row>
-    <row r="994" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="994" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A994" s="6">
         <v>789</v>
       </c>
@@ -37729,7 +37734,7 @@
       <c r="M994" s="6"/>
       <c r="N994" s="6"/>
     </row>
-    <row r="995" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="995" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A995" s="6">
         <v>790</v>
       </c>
@@ -37757,7 +37762,7 @@
       <c r="M995" s="6"/>
       <c r="N995" s="6"/>
     </row>
-    <row r="996" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="996" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A996" s="6">
         <v>791</v>
       </c>
@@ -37785,7 +37790,7 @@
       <c r="M996" s="6"/>
       <c r="N996" s="6"/>
     </row>
-    <row r="997" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="997" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A997" s="6">
         <v>792</v>
       </c>
@@ -37813,7 +37818,7 @@
       <c r="M997" s="6"/>
       <c r="N997" s="6"/>
     </row>
-    <row r="998" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="998" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A998" s="6">
         <v>794</v>
       </c>
@@ -37841,7 +37846,7 @@
       <c r="M998" s="6"/>
       <c r="N998" s="6"/>
     </row>
-    <row r="999" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="999" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A999" s="6">
         <v>797</v>
       </c>
@@ -37869,7 +37874,7 @@
       <c r="M999" s="6"/>
       <c r="N999" s="6"/>
     </row>
-    <row r="1000" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1000" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1000" s="6">
         <v>800</v>
       </c>
@@ -37897,7 +37902,7 @@
       <c r="M1000" s="6"/>
       <c r="N1000" s="6"/>
     </row>
-    <row r="1001" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1001" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1001" s="6">
         <v>801</v>
       </c>
@@ -37925,7 +37930,7 @@
       <c r="M1001" s="6"/>
       <c r="N1001" s="6"/>
     </row>
-    <row r="1002" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1002" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1002" s="6">
         <v>808</v>
       </c>
@@ -37953,7 +37958,7 @@
       <c r="M1002" s="6"/>
       <c r="N1002" s="6"/>
     </row>
-    <row r="1003" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1003" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1003" s="6">
         <v>811</v>
       </c>
@@ -37981,7 +37986,7 @@
       <c r="M1003" s="6"/>
       <c r="N1003" s="6"/>
     </row>
-    <row r="1004" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1004" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1004" s="6">
         <v>813</v>
       </c>
@@ -38009,7 +38014,7 @@
       <c r="M1004" s="6"/>
       <c r="N1004" s="6"/>
     </row>
-    <row r="1005" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1005" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1005" s="6">
         <v>817</v>
       </c>
@@ -38037,7 +38042,7 @@
       <c r="M1005" s="6"/>
       <c r="N1005" s="6"/>
     </row>
-    <row r="1006" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1006" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1006" s="6">
         <v>821</v>
       </c>
@@ -38065,7 +38070,7 @@
       <c r="M1006" s="6"/>
       <c r="N1006" s="6"/>
     </row>
-    <row r="1007" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1007" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1007" s="6">
         <v>822</v>
       </c>
@@ -38093,7 +38098,7 @@
       <c r="M1007" s="6"/>
       <c r="N1007" s="6"/>
     </row>
-    <row r="1008" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1008" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1008" s="6">
         <v>824</v>
       </c>
@@ -38121,7 +38126,7 @@
       <c r="M1008" s="6"/>
       <c r="N1008" s="6"/>
     </row>
-    <row r="1009" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1009" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1009" s="6">
         <v>826</v>
       </c>
@@ -38149,7 +38154,7 @@
       <c r="M1009" s="6"/>
       <c r="N1009" s="6"/>
     </row>
-    <row r="1010" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1010" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1010" s="6">
         <v>827</v>
       </c>
@@ -38177,7 +38182,7 @@
       <c r="M1010" s="6"/>
       <c r="N1010" s="6"/>
     </row>
-    <row r="1011" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1011" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1011" s="6">
         <v>828</v>
       </c>
@@ -38205,7 +38210,7 @@
       <c r="M1011" s="6"/>
       <c r="N1011" s="6"/>
     </row>
-    <row r="1012" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1012" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1012" s="6">
         <v>829</v>
       </c>
@@ -38233,7 +38238,7 @@
       <c r="M1012" s="6"/>
       <c r="N1012" s="6"/>
     </row>
-    <row r="1013" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1013" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1013" s="6">
         <v>830</v>
       </c>
@@ -38261,7 +38266,7 @@
       <c r="M1013" s="6"/>
       <c r="N1013" s="6"/>
     </row>
-    <row r="1014" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1014" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1014" s="6">
         <v>831</v>
       </c>
@@ -38289,7 +38294,7 @@
       <c r="M1014" s="6"/>
       <c r="N1014" s="6"/>
     </row>
-    <row r="1015" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1015" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1015" s="6">
         <v>832</v>
       </c>
@@ -38317,7 +38322,7 @@
       <c r="M1015" s="6"/>
       <c r="N1015" s="6"/>
     </row>
-    <row r="1016" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1016" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1016" s="6">
         <v>834</v>
       </c>
@@ -38345,7 +38350,7 @@
       <c r="M1016" s="6"/>
       <c r="N1016" s="6"/>
     </row>
-    <row r="1017" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1017" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1017" s="6">
         <v>835</v>
       </c>
@@ -38373,7 +38378,7 @@
       <c r="M1017" s="6"/>
       <c r="N1017" s="6"/>
     </row>
-    <row r="1018" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1018" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1018" s="6">
         <v>838</v>
       </c>
@@ -38401,7 +38406,7 @@
       <c r="M1018" s="6"/>
       <c r="N1018" s="6"/>
     </row>
-    <row r="1019" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1019" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1019" s="6">
         <v>841</v>
       </c>
@@ -38429,7 +38434,7 @@
       <c r="M1019" s="6"/>
       <c r="N1019" s="6"/>
     </row>
-    <row r="1020" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1020" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1020" s="6">
         <v>843</v>
       </c>
@@ -38457,7 +38462,7 @@
       <c r="M1020" s="6"/>
       <c r="N1020" s="6"/>
     </row>
-    <row r="1021" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1021" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1021" s="6">
         <v>844</v>
       </c>
@@ -38485,7 +38490,7 @@
       <c r="M1021" s="6"/>
       <c r="N1021" s="6"/>
     </row>
-    <row r="1022" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1022" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1022" s="6">
         <v>845</v>
       </c>
@@ -38513,7 +38518,7 @@
       <c r="M1022" s="6"/>
       <c r="N1022" s="6"/>
     </row>
-    <row r="1023" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1023" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1023" s="6">
         <v>847</v>
       </c>
@@ -38541,7 +38546,7 @@
       <c r="M1023" s="6"/>
       <c r="N1023" s="6"/>
     </row>
-    <row r="1024" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1024" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1024" s="6">
         <v>849</v>
       </c>
@@ -38569,7 +38574,7 @@
       <c r="M1024" s="6"/>
       <c r="N1024" s="6"/>
     </row>
-    <row r="1025" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1025" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1025" s="6">
         <v>851</v>
       </c>
@@ -38597,7 +38602,7 @@
       <c r="M1025" s="6"/>
       <c r="N1025" s="6"/>
     </row>
-    <row r="1026" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1026" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1026" s="6">
         <v>854</v>
       </c>
@@ -38625,7 +38630,7 @@
       <c r="M1026" s="6"/>
       <c r="N1026" s="6"/>
     </row>
-    <row r="1027" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1027" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1027" s="6">
         <v>855</v>
       </c>
@@ -38653,7 +38658,7 @@
       <c r="M1027" s="6"/>
       <c r="N1027" s="6"/>
     </row>
-    <row r="1028" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1028" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1028" s="6">
         <v>856</v>
       </c>
@@ -38681,7 +38686,7 @@
       <c r="M1028" s="6"/>
       <c r="N1028" s="6"/>
     </row>
-    <row r="1029" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1029" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1029" s="6">
         <v>862</v>
       </c>
@@ -38709,7 +38714,7 @@
       <c r="M1029" s="6"/>
       <c r="N1029" s="6"/>
     </row>
-    <row r="1030" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1030" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1030" s="6">
         <v>865</v>
       </c>
@@ -38737,7 +38742,7 @@
       <c r="M1030" s="6"/>
       <c r="N1030" s="6"/>
     </row>
-    <row r="1031" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1031" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1031" s="6">
         <v>866</v>
       </c>
@@ -38765,7 +38770,7 @@
       <c r="M1031" s="6"/>
       <c r="N1031" s="6"/>
     </row>
-    <row r="1032" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1032" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1032" s="6">
         <v>870</v>
       </c>
@@ -38793,7 +38798,7 @@
       <c r="M1032" s="6"/>
       <c r="N1032" s="6"/>
     </row>
-    <row r="1033" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1033" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1033" s="6">
         <v>873</v>
       </c>
@@ -38821,7 +38826,7 @@
       <c r="M1033" s="6"/>
       <c r="N1033" s="6"/>
     </row>
-    <row r="1034" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1034" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1034" s="6">
         <v>880</v>
       </c>
@@ -38849,7 +38854,7 @@
       <c r="M1034" s="6"/>
       <c r="N1034" s="6"/>
     </row>
-    <row r="1035" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1035" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1035" s="6">
         <v>884</v>
       </c>
@@ -38877,7 +38882,7 @@
       <c r="M1035" s="6"/>
       <c r="N1035" s="6"/>
     </row>
-    <row r="1036" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1036" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1036" s="6">
         <v>885</v>
       </c>
@@ -38905,7 +38910,7 @@
       <c r="M1036" s="6"/>
       <c r="N1036" s="6"/>
     </row>
-    <row r="1037" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1037" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1037" s="6">
         <v>886</v>
       </c>
@@ -38933,7 +38938,7 @@
       <c r="M1037" s="6"/>
       <c r="N1037" s="6"/>
     </row>
-    <row r="1038" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1038" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1038" s="6">
         <v>888</v>
       </c>
@@ -38961,7 +38966,7 @@
       <c r="M1038" s="6"/>
       <c r="N1038" s="6"/>
     </row>
-    <row r="1039" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1039" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1039" s="6">
         <v>890</v>
       </c>
@@ -38989,7 +38994,7 @@
       <c r="M1039" s="6"/>
       <c r="N1039" s="6"/>
     </row>
-    <row r="1040" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1040" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1040" s="6">
         <v>891</v>
       </c>
@@ -39017,7 +39022,7 @@
       <c r="M1040" s="6"/>
       <c r="N1040" s="6"/>
     </row>
-    <row r="1041" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1041" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1041" s="6">
         <v>892</v>
       </c>
@@ -39045,7 +39050,7 @@
       <c r="M1041" s="6"/>
       <c r="N1041" s="6"/>
     </row>
-    <row r="1042" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1042" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1042" s="6">
         <v>899</v>
       </c>
@@ -39073,7 +39078,7 @@
       <c r="M1042" s="6"/>
       <c r="N1042" s="6"/>
     </row>
-    <row r="1043" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1043" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1043" s="6">
         <v>906</v>
       </c>
@@ -39101,7 +39106,7 @@
       <c r="M1043" s="6"/>
       <c r="N1043" s="6"/>
     </row>
-    <row r="1044" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1044" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1044" s="6">
         <v>907</v>
       </c>
@@ -39129,7 +39134,7 @@
       <c r="M1044" s="6"/>
       <c r="N1044" s="6"/>
     </row>
-    <row r="1045" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1045" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1045" s="6">
         <v>955</v>
       </c>
@@ -39165,7 +39170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1046" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1046" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1046" s="6">
         <v>964</v>
       </c>
@@ -39193,7 +39198,7 @@
       <c r="M1046" s="6"/>
       <c r="N1046" s="6"/>
     </row>
-    <row r="1047" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1047" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1047" s="6">
         <v>965</v>
       </c>
@@ -39229,7 +39234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1048" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1048" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1048" s="6">
         <v>1000</v>
       </c>
@@ -39265,7 +39270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1049" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1049" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1049" s="6">
         <v>1013</v>
       </c>
@@ -39301,7 +39306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1050" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1050" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1050" s="6">
         <v>1014</v>
       </c>
@@ -39337,7 +39342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1051" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1051" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1051" s="6">
         <v>1018</v>
       </c>
@@ -39373,7 +39378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1052" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1052" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1052" s="6">
         <v>1026</v>
       </c>
@@ -39409,7 +39414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1053" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1053" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1053" s="6">
         <v>1028</v>
       </c>
@@ -39445,7 +39450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1054" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1054" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1054" s="6">
         <v>1030</v>
       </c>
@@ -39481,7 +39486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1055" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1055" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1055" s="6">
         <v>1040</v>
       </c>
@@ -39509,7 +39514,7 @@
       <c r="M1055" s="6"/>
       <c r="N1055" s="6"/>
     </row>
-    <row r="1056" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="1056" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A1056" s="6">
         <v>1049</v>
       </c>

--- a/高考全国院校投档线-文件转换_数据清洗/江西/2023/一本.xlsx
+++ b/高考全国院校投档线-文件转换_数据清洗/江西/2023/一本.xlsx
@@ -2428,10 +2428,21 @@
         <filter val="理工"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="10">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="东北财经大学"/>
+        <filter val="东北财经大学(国家专项计划)"/>
+        <filter val="东北大学"/>
+        <filter val="东北大学(国家专项计划)"/>
+        <filter val="东北大学秦皇岛分校"/>
+        <filter val="东北电力大学"/>
+        <filter val="东北林业大学"/>
+        <filter val="东北林业大学(国家专项计划)"/>
+        <filter val="东北农业大学"/>
+        <filter val="东北师范大学"/>
+        <filter val="东北师范大学(国家专项计划)"/>
+        <filter val="东北石油大学"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:N1056">
@@ -2744,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
-      <selection activeCell="F854" sqref="F854"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H442" sqref="H442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2809,7 +2820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="2" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A2" s="6">
         <v>422</v>
       </c>
@@ -2851,7 +2862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A3" s="6">
         <v>419</v>
       </c>
@@ -2893,7 +2904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A4" s="6">
         <v>477</v>
       </c>
@@ -2991,7 +3002,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="7" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A7" s="6">
         <v>475</v>
       </c>
@@ -3117,7 +3128,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="11" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A11" s="6">
         <v>990</v>
       </c>
@@ -3187,7 +3198,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="13" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A13" s="6">
         <v>504</v>
       </c>
@@ -3257,7 +3268,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A15" s="6">
         <v>513</v>
       </c>
@@ -3299,7 +3310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="16" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A16" s="6">
         <v>489</v>
       </c>
@@ -3341,7 +3352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="17" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A17" s="6">
         <v>421</v>
       </c>
@@ -3439,7 +3450,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="20" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A20" s="6">
         <v>438</v>
       </c>
@@ -3677,7 +3688,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="27" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A27" s="6">
         <v>468</v>
       </c>
@@ -3775,7 +3786,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="30" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A30" s="6">
         <v>439</v>
       </c>
@@ -3817,7 +3828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="31" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A31" s="6">
         <v>562</v>
       </c>
@@ -3929,7 +3940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="34" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A34" s="6">
         <v>476</v>
       </c>
@@ -4069,7 +4080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="38" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A38" s="6">
         <v>986</v>
       </c>
@@ -4111,7 +4122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="39" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A39" s="6">
         <v>490</v>
       </c>
@@ -4153,7 +4164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="40" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A40" s="6">
         <v>528</v>
       </c>
@@ -4265,7 +4276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="43" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A43" s="6">
         <v>981</v>
       </c>
@@ -4377,7 +4388,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="46" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A46" s="6">
         <v>537</v>
       </c>
@@ -4419,7 +4430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="47" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A47" s="6">
         <v>920</v>
       </c>
@@ -4461,7 +4472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="48" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A48" s="6">
         <v>553</v>
       </c>
@@ -4559,7 +4570,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="51" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A51" s="6">
         <v>958</v>
       </c>
@@ -4601,7 +4612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="52" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A52" s="6">
         <v>566</v>
       </c>
@@ -4643,7 +4654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="53" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A53" s="6">
         <v>446</v>
       </c>
@@ -4685,7 +4696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="54" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A54" s="6">
         <v>530</v>
       </c>
@@ -4783,7 +4794,7 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="57" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A57" s="6">
         <v>972</v>
       </c>
@@ -4853,7 +4864,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="59" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A59" s="6">
         <v>516</v>
       </c>
@@ -5021,7 +5032,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="64" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A64" s="6">
         <v>388</v>
       </c>
@@ -5063,7 +5074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="65" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A65" s="6">
         <v>426</v>
       </c>
@@ -5217,7 +5228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="69" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A69" s="6">
         <v>538</v>
       </c>
@@ -5257,7 +5268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="70" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A70" s="6">
         <v>447</v>
       </c>
@@ -5340,7 +5351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="72" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A72" s="6">
         <v>994</v>
       </c>
@@ -5492,7 +5503,7 @@
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="76" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A76" s="6">
         <v>560</v>
       </c>
@@ -5532,7 +5543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="77" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A77" s="6">
         <v>396</v>
       </c>
@@ -5574,7 +5585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="78" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A78" s="6">
         <v>481</v>
       </c>
@@ -5698,7 +5709,7 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="82" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A82" s="6">
         <v>555</v>
       </c>
@@ -5978,7 +5989,7 @@
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="90" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A90" s="6">
         <v>457</v>
       </c>
@@ -6020,7 +6031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="91" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A91" s="6">
         <v>432</v>
       </c>
@@ -6186,7 +6197,7 @@
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="96" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A96" s="6">
         <v>989</v>
       </c>
@@ -6228,7 +6239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="97" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A97" s="6">
         <v>550</v>
       </c>
@@ -6340,7 +6351,7 @@
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
     </row>
-    <row r="100" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="100" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A100" s="6">
         <v>534</v>
       </c>
@@ -6508,7 +6519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="104" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A104" s="6">
         <v>535</v>
       </c>
@@ -6550,7 +6561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="105" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A105" s="6">
         <v>518</v>
       </c>
@@ -6592,7 +6603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="106" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A106" s="6">
         <v>496</v>
       </c>
@@ -6632,7 +6643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="107" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A107" s="6">
         <v>977</v>
       </c>
@@ -6742,7 +6753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="110" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A110" s="6">
         <v>433</v>
       </c>
@@ -6782,7 +6793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="111" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A111" s="6">
         <v>982</v>
       </c>
@@ -6824,7 +6835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="112" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A112" s="6">
         <v>423</v>
       </c>
@@ -7018,7 +7029,7 @@
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
     </row>
-    <row r="117" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="117" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A117" s="6">
         <v>995</v>
       </c>
@@ -7058,7 +7069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="118" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A118" s="6">
         <v>427</v>
       </c>
@@ -7226,7 +7237,7 @@
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
     </row>
-    <row r="123" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="123" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A123" s="6">
         <v>440</v>
       </c>
@@ -7294,7 +7305,7 @@
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
     </row>
-    <row r="125" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="125" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A125" s="6">
         <v>495</v>
       </c>
@@ -7416,7 +7427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="128" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A128" s="6">
         <v>424</v>
       </c>
@@ -7512,7 +7523,7 @@
       <c r="M130" s="6"/>
       <c r="N130" s="6"/>
     </row>
-    <row r="131" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="131" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A131" s="6">
         <v>979</v>
       </c>
@@ -7678,7 +7689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="135" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A135" s="6">
         <v>519</v>
       </c>
@@ -7924,7 +7935,7 @@
       <c r="M141" s="6"/>
       <c r="N141" s="6"/>
     </row>
-    <row r="142" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="142" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A142" s="6">
         <v>497</v>
       </c>
@@ -7964,7 +7975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="143" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A143" s="6">
         <v>911</v>
       </c>
@@ -8006,7 +8017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="144" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A144" s="6">
         <v>960</v>
       </c>
@@ -8048,7 +8059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="145" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A145" s="6">
         <v>465</v>
       </c>
@@ -8284,7 +8295,7 @@
       <c r="M151" s="6"/>
       <c r="N151" s="6"/>
     </row>
-    <row r="152" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="152" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A152" s="6">
         <v>552</v>
       </c>
@@ -8516,7 +8527,7 @@
       <c r="M158" s="6"/>
       <c r="N158" s="6"/>
     </row>
-    <row r="159" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="159" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A159" s="6">
         <v>483</v>
       </c>
@@ -8556,7 +8567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="160" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A160" s="6">
         <v>478</v>
       </c>
@@ -8596,7 +8607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="161" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A161" s="6">
         <v>916</v>
       </c>
@@ -8812,7 +8823,7 @@
       <c r="M166" s="6"/>
       <c r="N166" s="6"/>
     </row>
-    <row r="167" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="167" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A167" s="6">
         <v>910</v>
       </c>
@@ -8920,7 +8931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="170" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A170" s="6">
         <v>919</v>
       </c>
@@ -9088,7 +9099,7 @@
       <c r="M174" s="6"/>
       <c r="N174" s="6"/>
     </row>
-    <row r="175" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
+    <row r="175" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A175" s="6">
         <v>796</v>
       </c>
@@ -9116,7 +9127,7 @@
       <c r="M175" s="6"/>
       <c r="N175" s="6"/>
     </row>
-    <row r="176" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="176" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A176" s="6">
         <v>469</v>
       </c>
@@ -9156,7 +9167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="177" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A177" s="6">
         <v>434</v>
       </c>
@@ -9196,7 +9207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="178" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A178" s="6">
         <v>531</v>
       </c>
@@ -9236,7 +9247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="179" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A179" s="6">
         <v>448</v>
       </c>
@@ -9312,7 +9323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="181" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A181" s="6">
         <v>568</v>
       </c>
@@ -9474,7 +9485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="185" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A185" s="6">
         <v>540</v>
       </c>
@@ -9580,7 +9591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="188" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A188" s="6">
         <v>956</v>
       </c>
@@ -9622,7 +9633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="189" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A189" s="6">
         <v>570</v>
       </c>
@@ -9824,7 +9835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="194" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A194" s="6">
         <v>517</v>
       </c>
@@ -9892,7 +9903,7 @@
       <c r="M195" s="6"/>
       <c r="N195" s="6"/>
     </row>
-    <row r="196" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="196" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A196" s="6">
         <v>944</v>
       </c>
@@ -9934,7 +9945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="197" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A197" s="6">
         <v>417</v>
       </c>
@@ -9976,7 +9987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="198" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A198" s="6">
         <v>492</v>
       </c>
@@ -10174,7 +10185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="203" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A203" s="6">
         <v>499</v>
       </c>
@@ -10214,7 +10225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="204" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A204" s="6">
         <v>479</v>
       </c>
@@ -10254,7 +10265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="205" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A205" s="6">
         <v>425</v>
       </c>
@@ -10538,7 +10549,7 @@
       <c r="M212" s="6"/>
       <c r="N212" s="6"/>
     </row>
-    <row r="213" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="213" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A213" s="6">
         <v>918</v>
       </c>
@@ -10580,7 +10591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="214" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A214" s="6">
         <v>554</v>
       </c>
@@ -10648,7 +10659,7 @@
       <c r="M215" s="6"/>
       <c r="N215" s="6"/>
     </row>
-    <row r="216" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="216" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A216" s="6">
         <v>443</v>
       </c>
@@ -10688,7 +10699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="217" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A217" s="6">
         <v>512</v>
       </c>
@@ -10888,7 +10899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="222" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A222" s="6">
         <v>948</v>
       </c>
@@ -10930,7 +10941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="223" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A223" s="6">
         <v>480</v>
       </c>
@@ -10970,7 +10981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
+    <row r="224" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A224" s="6">
         <v>454</v>
       </c>
@@ -11294,7 +11305,7 @@
       <c r="M233" s="6"/>
       <c r="N233" s="6"/>
     </row>
-    <row r="234" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="234" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A234" s="6">
         <v>403</v>
       </c>
@@ -11616,7 +11627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="243" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A243" s="6">
         <v>431</v>
       </c>
@@ -11812,7 +11823,7 @@
       <c r="M248" s="6"/>
       <c r="N248" s="6"/>
     </row>
-    <row r="249" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="249" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A249" s="6">
         <v>494</v>
       </c>
@@ -11960,7 +11971,7 @@
       <c r="M252" s="6"/>
       <c r="N252" s="6"/>
     </row>
-    <row r="253" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="253" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A253" s="6">
         <v>912</v>
       </c>
@@ -12000,7 +12011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="254" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A254" s="6">
         <v>491</v>
       </c>
@@ -12040,7 +12051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="255" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A255" s="6">
         <v>406</v>
       </c>
@@ -12136,7 +12147,7 @@
       <c r="M257" s="6"/>
       <c r="N257" s="6"/>
     </row>
-    <row r="258" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="258" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A258" s="6">
         <v>397</v>
       </c>
@@ -12382,7 +12393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="265" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A265" s="6">
         <v>514</v>
       </c>
@@ -13156,7 +13167,7 @@
       <c r="M286" s="6"/>
       <c r="N286" s="6"/>
     </row>
-    <row r="287" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="287" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A287" s="6">
         <v>529</v>
       </c>
@@ -13196,7 +13207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="288" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A288" s="6">
         <v>449</v>
       </c>
@@ -13264,7 +13275,7 @@
       <c r="M289" s="6"/>
       <c r="N289" s="6"/>
     </row>
-    <row r="290" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="290" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A290" s="6">
         <v>411</v>
       </c>
@@ -13420,7 +13431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="294" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A294" s="6">
         <v>414</v>
       </c>
@@ -13460,7 +13471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="295" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A295" s="6">
         <v>978</v>
       </c>
@@ -13530,7 +13541,7 @@
       <c r="M296" s="6"/>
       <c r="N296" s="6"/>
     </row>
-    <row r="297" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="297" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A297" s="6">
         <v>429</v>
       </c>
@@ -13570,7 +13581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="298" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A298" s="6">
         <v>921</v>
       </c>
@@ -13754,7 +13765,7 @@
       <c r="M302" s="6"/>
       <c r="N302" s="6"/>
     </row>
-    <row r="303" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="303" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A303" s="6">
         <v>563</v>
       </c>
@@ -13822,7 +13833,7 @@
       <c r="M304" s="6"/>
       <c r="N304" s="6"/>
     </row>
-    <row r="305" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="305" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A305" s="6">
         <v>567</v>
       </c>
@@ -13862,7 +13873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="306" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A306" s="6">
         <v>909</v>
       </c>
@@ -13904,7 +13915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="307" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A307" s="6">
         <v>525</v>
       </c>
@@ -13944,7 +13955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="308" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="308" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A308" s="6">
         <v>1007</v>
       </c>
@@ -14078,7 +14089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="312" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="312" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A312" s="6">
         <v>935</v>
       </c>
@@ -14270,7 +14281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="317" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A317" s="6">
         <v>936</v>
       </c>
@@ -14376,7 +14387,7 @@
       <c r="M319" s="6"/>
       <c r="N319" s="6"/>
     </row>
-    <row r="320" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="320" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A320" s="6">
         <v>561</v>
       </c>
@@ -14454,7 +14465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="322" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A322" s="6">
         <v>527</v>
       </c>
@@ -14686,7 +14697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="329" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="329" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A329" s="6">
         <v>970</v>
       </c>
@@ -14756,7 +14767,7 @@
       <c r="M330" s="6"/>
       <c r="N330" s="6"/>
     </row>
-    <row r="331" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="331" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A331" s="6">
         <v>937</v>
       </c>
@@ -15106,7 +15117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="341" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A341" s="6">
         <v>559</v>
       </c>
@@ -15230,7 +15241,7 @@
       <c r="M344" s="6"/>
       <c r="N344" s="6"/>
     </row>
-    <row r="345" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="345" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A345" s="6">
         <v>927</v>
       </c>
@@ -15270,7 +15281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="346" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A346" s="6">
         <v>393</v>
       </c>
@@ -15554,7 +15565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="354" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A354" s="6">
         <v>915</v>
       </c>
@@ -15594,7 +15605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="355" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A355" s="6">
         <v>925</v>
       </c>
@@ -15634,7 +15645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="356" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A356" s="6">
         <v>493</v>
       </c>
@@ -15674,7 +15685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="357" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A357" s="6">
         <v>963</v>
       </c>
@@ -15742,7 +15753,7 @@
       <c r="M358" s="6"/>
       <c r="N358" s="6"/>
     </row>
-    <row r="359" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="359" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A359" s="6">
         <v>405</v>
       </c>
@@ -15846,7 +15857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="362" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="362" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A362" s="6">
         <v>455</v>
       </c>
@@ -16080,7 +16091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="369" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A369" s="6">
         <v>993</v>
       </c>
@@ -16536,7 +16547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="382" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="382" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A382" s="6">
         <v>933</v>
       </c>
@@ -16578,7 +16589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="383" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="383" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A383" s="6">
         <v>558</v>
       </c>
@@ -16816,7 +16827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="390" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="390" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A390" s="6">
         <v>908</v>
       </c>
@@ -17224,7 +17235,7 @@
       <c r="M401" s="6"/>
       <c r="N401" s="6"/>
     </row>
-    <row r="402" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="402" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A402" s="6">
         <v>980</v>
       </c>
@@ -17266,7 +17277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="403" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="403" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A403" s="6">
         <v>924</v>
       </c>
@@ -17442,7 +17453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="408" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="408" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A408" s="6">
         <v>1004</v>
       </c>
@@ -17818,7 +17829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="419" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="419" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A419" s="6">
         <v>549</v>
       </c>
@@ -18078,7 +18089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="426" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="426" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A426" s="6">
         <v>883</v>
       </c>
@@ -18114,7 +18125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="427" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="427" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A427" s="6">
         <v>976</v>
       </c>
@@ -18194,7 +18205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="429" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="429" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -18234,7 +18245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="430" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="430" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A430" s="6">
         <v>548</v>
       </c>
@@ -18658,7 +18669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="442" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="442" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A442" s="6">
         <v>463</v>
       </c>
@@ -18976,7 +18987,7 @@
       <c r="M450" s="6"/>
       <c r="N450" s="6"/>
     </row>
-    <row r="451" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="451" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A451" s="6">
         <v>556</v>
       </c>
@@ -19052,7 +19063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="453" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
+    <row r="453" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A453" s="6">
         <v>782</v>
       </c>
@@ -19136,7 +19147,7 @@
       <c r="M455" s="6"/>
       <c r="N455" s="6"/>
     </row>
-    <row r="456" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="456" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A456" s="6">
         <v>966</v>
       </c>
@@ -19862,7 +19873,7 @@
       <c r="M475" s="6"/>
       <c r="N475" s="6"/>
     </row>
-    <row r="476" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="476" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A476" s="6">
         <v>959</v>
       </c>
@@ -20744,7 +20755,7 @@
       <c r="M500" s="6"/>
       <c r="N500" s="6"/>
     </row>
-    <row r="501" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="501" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A501" s="6">
         <v>389</v>
       </c>
@@ -20784,7 +20795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="502" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
+    <row r="502" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A502" s="6">
         <v>608</v>
       </c>
@@ -20856,7 +20867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="504" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="504" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A504" s="6">
         <v>949</v>
       </c>
@@ -20932,7 +20943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="506" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="506" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A506" s="6">
         <v>466</v>
       </c>
@@ -22394,7 +22405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="547" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="547" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A547" s="6">
         <v>953</v>
       </c>
@@ -22744,7 +22755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="557" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="557" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A557" s="6">
         <v>571</v>
       </c>
@@ -22784,7 +22795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="558" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="558" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A558" s="6">
         <v>971</v>
       </c>
@@ -23646,7 +23657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="582" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="582" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A582" s="6">
         <v>572</v>
       </c>
@@ -24628,7 +24639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="609" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
+    <row r="609" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A609" s="6">
         <v>456</v>
       </c>
@@ -25784,7 +25795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="642" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="642" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A642" s="6">
         <v>573</v>
       </c>
@@ -30026,7 +30037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="765" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="765" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A765" s="6">
         <v>946</v>
       </c>
@@ -31846,7 +31857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="818" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="818" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A818" s="6">
         <v>574</v>
       </c>
@@ -32266,7 +32277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="830" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="830" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A830" s="6">
         <v>939</v>
       </c>
@@ -33094,7 +33105,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="854" spans="1:14" ht="18.600000000000001" customHeight="1">
+    <row r="854" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
       <c r="A854" s="6">
         <v>1006</v>
       </c>
@@ -34946,7 +34957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="908" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
+    <row r="908" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A908" s="6">
         <v>917</v>
       </c>
@@ -35410,7 +35421,7 @@
       <c r="M921" s="6"/>
       <c r="N921" s="6"/>
     </row>
-    <row r="922" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
+    <row r="922" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A922" s="6">
         <v>472</v>
       </c>
@@ -37790,7 +37801,7 @@
       <c r="M996" s="6"/>
       <c r="N996" s="6"/>
     </row>
-    <row r="997" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
+    <row r="997" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A997" s="6">
         <v>792</v>
       </c>
@@ -37874,7 +37885,7 @@
       <c r="M999" s="6"/>
       <c r="N999" s="6"/>
     </row>
-    <row r="1000" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
+    <row r="1000" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A1000" s="6">
         <v>800</v>
       </c>
@@ -39106,7 +39117,7 @@
       <c r="M1043" s="6"/>
       <c r="N1043" s="6"/>
     </row>
-    <row r="1044" spans="1:14" ht="18.600000000000001" hidden="1" customHeight="1">
+    <row r="1044" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A1044" s="6">
         <v>907</v>
       </c>
@@ -39545,8 +39556,9 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>